--- a/data/strategies/安信场内策略结果.xlsx
+++ b/data/strategies/安信场内策略结果.xlsx
@@ -18,20 +18,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="189">
+  <si>
+    <t>富国中证细分机械设备产业ETF</t>
+  </si>
   <si>
     <t>天弘中证电子ETF</t>
   </si>
   <si>
-    <t>富国中证细分机械设备产业ETF</t>
+    <t>华泰柏瑞中证光伏产业ETF</t>
   </si>
   <si>
     <t>国泰中证全指通信设备ETF</t>
   </si>
   <si>
-    <t>华泰柏瑞中证光伏产业ETF</t>
-  </si>
-  <si>
     <t>制造业回归</t>
   </si>
   <si>
@@ -62,532 +62,529 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>10.58%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>20.50%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>8.49%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>21.75%</t>
+    <t>13.69%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>18.17%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>12.51%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>25.68%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>21.82%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>26.48%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
+  </si>
+  <si>
+    <t>场内权重</t>
+  </si>
+  <si>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
+  </si>
+  <si>
+    <t>场内基金</t>
+  </si>
+  <si>
+    <t>场内代码</t>
+  </si>
+  <si>
+    <t>159886.OF</t>
+  </si>
+  <si>
+    <t>159997.OF</t>
+  </si>
+  <si>
+    <t>515790.OF</t>
+  </si>
+  <si>
+    <t>515880.OF</t>
+  </si>
+  <si>
+    <t>16.87%</t>
+  </si>
+  <si>
+    <t>11.15%</t>
+  </si>
+  <si>
+    <t>23.86%</t>
+  </si>
+  <si>
+    <t>2.37%</t>
+  </si>
+  <si>
+    <t>22.83%</t>
+  </si>
+  <si>
+    <t>16.39%</t>
+  </si>
+  <si>
+    <t>30.10%</t>
+  </si>
+  <si>
+    <t>3.24%</t>
+  </si>
+  <si>
+    <t>20.60%</t>
   </si>
   <si>
     <t>10.97%</t>
   </si>
   <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>20.51%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>26.35%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
-  </si>
-  <si>
-    <t>场内权重</t>
-  </si>
-  <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
-  </si>
-  <si>
-    <t>场内基金</t>
-  </si>
-  <si>
-    <t>场内代码</t>
-  </si>
-  <si>
-    <t>159997.OF</t>
-  </si>
-  <si>
-    <t>159886.OF</t>
-  </si>
-  <si>
-    <t>515880.OF</t>
-  </si>
-  <si>
-    <t>515790.OF</t>
-  </si>
-  <si>
-    <t>9.22%</t>
-  </si>
-  <si>
-    <t>6.42%</t>
-  </si>
-  <si>
-    <t>14.72%</t>
-  </si>
-  <si>
-    <t>23.18%</t>
-  </si>
-  <si>
-    <t>24.48%</t>
+    <t>21.57%</t>
+  </si>
+  <si>
+    <t>-3.12%</t>
+  </si>
+  <si>
+    <t>30.38%</t>
+  </si>
+  <si>
+    <t>28.20%</t>
+  </si>
+  <si>
+    <t>37.33%</t>
+  </si>
+  <si>
+    <t>23.77%</t>
+  </si>
+  <si>
+    <t>28.32%</t>
+  </si>
+  <si>
+    <t>23.80%</t>
+  </si>
+  <si>
+    <t>30.05%</t>
+  </si>
+  <si>
+    <t>19.95%</t>
+  </si>
+  <si>
+    <t>36.55%</t>
+  </si>
+  <si>
+    <t>27.04%</t>
+  </si>
+  <si>
+    <t>36.12%</t>
+  </si>
+  <si>
+    <t>21.45%</t>
+  </si>
+  <si>
+    <t>股票代码</t>
+  </si>
+  <si>
+    <t>股票权重</t>
+  </si>
+  <si>
+    <t>股票名称</t>
+  </si>
+  <si>
+    <t>财报主营构成</t>
+  </si>
+  <si>
+    <t>区间收益率</t>
+  </si>
+  <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>300750.SZ</t>
+  </si>
+  <si>
+    <t>300274.SZ</t>
+  </si>
+  <si>
+    <t>600438.SH</t>
+  </si>
+  <si>
+    <t>002129.SZ</t>
+  </si>
+  <si>
+    <t>600745.SH</t>
+  </si>
+  <si>
+    <t>002415.SZ</t>
+  </si>
+  <si>
+    <t>000063.SZ</t>
+  </si>
+  <si>
+    <t>688036.SH</t>
+  </si>
+  <si>
+    <t>300450.SZ</t>
+  </si>
+  <si>
+    <t>002475.SZ</t>
+  </si>
+  <si>
+    <t>600089.SH</t>
+  </si>
+  <si>
+    <t>000725.SZ</t>
+  </si>
+  <si>
+    <t>601138.SH</t>
+  </si>
+  <si>
+    <t>600031.SH</t>
+  </si>
+  <si>
+    <t>603806.SH</t>
+  </si>
+  <si>
+    <t>603501.SH</t>
+  </si>
+  <si>
+    <t>601877.SH</t>
+  </si>
+  <si>
+    <t>300136.SZ</t>
+  </si>
+  <si>
+    <t>300316.SZ</t>
+  </si>
+  <si>
+    <t>618.30%</t>
+  </si>
+  <si>
+    <t>428.75%</t>
+  </si>
+  <si>
+    <t>391.50%</t>
+  </si>
+  <si>
+    <t>359.55%</t>
+  </si>
+  <si>
+    <t>291.95%</t>
+  </si>
+  <si>
+    <t>255.07%</t>
+  </si>
+  <si>
+    <t>237.27%</t>
+  </si>
+  <si>
+    <t>235.18%</t>
+  </si>
+  <si>
+    <t>212.60%</t>
+  </si>
+  <si>
+    <t>201.00%</t>
+  </si>
+  <si>
+    <t>177.08%</t>
+  </si>
+  <si>
+    <t>170.05%</t>
+  </si>
+  <si>
+    <t>166.38%</t>
+  </si>
+  <si>
+    <t>156.40%</t>
+  </si>
+  <si>
+    <t>154.88%</t>
+  </si>
+  <si>
+    <t>138.35%</t>
+  </si>
+  <si>
+    <t>132.08%</t>
+  </si>
+  <si>
+    <t>127.85%</t>
+  </si>
+  <si>
+    <t>126.35%</t>
+  </si>
+  <si>
+    <t>115.68%</t>
+  </si>
+  <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>宁德时代</t>
+  </si>
+  <si>
+    <t>阳光电源</t>
+  </si>
+  <si>
+    <t>通威股份</t>
+  </si>
+  <si>
+    <t>中环股份</t>
+  </si>
+  <si>
+    <t>闻泰科技</t>
+  </si>
+  <si>
+    <t>海康威视</t>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+  </si>
+  <si>
+    <t>传音控股</t>
+  </si>
+  <si>
+    <t>先导智能</t>
+  </si>
+  <si>
+    <t>立讯精密</t>
+  </si>
+  <si>
+    <t>特变电工</t>
+  </si>
+  <si>
+    <t>京东方A</t>
+  </si>
+  <si>
+    <t>工业富联</t>
+  </si>
+  <si>
+    <t>三一重工</t>
+  </si>
+  <si>
+    <t>福斯特</t>
+  </si>
+  <si>
+    <t>韦尔股份</t>
+  </si>
+  <si>
+    <t>正泰电器</t>
+  </si>
+  <si>
+    <t>信维通信</t>
+  </si>
+  <si>
+    <t>晶盛机电</t>
+  </si>
+  <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>动力电池系统</t>
+  </si>
+  <si>
+    <t>电站系统集成(不含自制产品)</t>
+  </si>
+  <si>
+    <t>配合饲料</t>
+  </si>
+  <si>
+    <t>新能源材料</t>
+  </si>
+  <si>
+    <t>手机及配件</t>
+  </si>
+  <si>
+    <t>前端音视频产品</t>
+  </si>
+  <si>
+    <t>运营商网络</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>锂电池设备</t>
+  </si>
+  <si>
+    <t>消费性电子</t>
+  </si>
+  <si>
+    <t>新能源产品及集成工程</t>
+  </si>
+  <si>
+    <t>显示器件业务</t>
+  </si>
+  <si>
+    <t>3C电子产品</t>
+  </si>
+  <si>
+    <t>挖掘机械</t>
+  </si>
+  <si>
+    <t>EVA胶膜</t>
+  </si>
+  <si>
+    <t>CMOS图像传感器产品</t>
+  </si>
+  <si>
+    <t>太阳能电池组件</t>
+  </si>
+  <si>
+    <t>移动终端天线及附件</t>
+  </si>
+  <si>
+    <t>晶体硅生长设备</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>74.57%</t>
+  </si>
+  <si>
+    <t>8.06%</t>
+  </si>
+  <si>
+    <t>65.91%</t>
+  </si>
+  <si>
+    <t>1.90%</t>
+  </si>
+  <si>
+    <t>35.01%</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>24.24%</t>
+  </si>
+  <si>
+    <t>28.45%</t>
+  </si>
+  <si>
+    <t>-18.67%</t>
+  </si>
+  <si>
+    <t>36.65%</t>
+  </si>
+  <si>
+    <t>8.44%</t>
+  </si>
+  <si>
+    <t>-12.22%</t>
+  </si>
+  <si>
+    <t>-23.86%</t>
+  </si>
+  <si>
+    <t>57.25%</t>
+  </si>
+  <si>
+    <t>50.37%</t>
+  </si>
+  <si>
+    <t>-7.51%</t>
+  </si>
+  <si>
+    <t>-11.16%</t>
+  </si>
+  <si>
+    <t>75.60%</t>
+  </si>
+  <si>
+    <t>一级标签</t>
+  </si>
+  <si>
+    <t>标签占比</t>
+  </si>
+  <si>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>消费电子</t>
+  </si>
+  <si>
+    <t>锂电池</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>通信</t>
+  </si>
+  <si>
+    <t>光学光电子</t>
+  </si>
+  <si>
+    <t>机械设备</t>
+  </si>
+  <si>
+    <t>半导体芯片</t>
+  </si>
+  <si>
+    <t>22.13%</t>
+  </si>
+  <si>
+    <t>7.71%</t>
   </si>
   <si>
     <t>6.30%</t>
   </si>
   <si>
-    <t>28.47%</t>
-  </si>
-  <si>
-    <t>8.61%</t>
-  </si>
-  <si>
-    <t>14.67%</t>
-  </si>
-  <si>
-    <t>-2.31%</t>
-  </si>
-  <si>
-    <t>12.98%</t>
-  </si>
-  <si>
-    <t>23.81%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>17.98%</t>
-  </si>
-  <si>
-    <t>34.69%</t>
-  </si>
-  <si>
-    <t>22.52%</t>
-  </si>
-  <si>
-    <t>27.94%</t>
-  </si>
-  <si>
-    <t>17.32%</t>
-  </si>
-  <si>
-    <t>28.36%</t>
-  </si>
-  <si>
-    <t>26.85%</t>
-  </si>
-  <si>
-    <t>36.90%</t>
-  </si>
-  <si>
-    <t>20.80%</t>
-  </si>
-  <si>
-    <t>35.81%</t>
-  </si>
-  <si>
-    <t>股票代码</t>
-  </si>
-  <si>
-    <t>股票权重</t>
-  </si>
-  <si>
-    <t>股票名称</t>
-  </si>
-  <si>
-    <t>财报主营构成</t>
-  </si>
-  <si>
-    <t>区间涨跌幅</t>
-  </si>
-  <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
-    <t>300750.SZ</t>
-  </si>
-  <si>
-    <t>300274.SZ</t>
-  </si>
-  <si>
-    <t>600438.SH</t>
-  </si>
-  <si>
-    <t>000063.SZ</t>
-  </si>
-  <si>
-    <t>300450.SZ</t>
-  </si>
-  <si>
-    <t>002415.SZ</t>
-  </si>
-  <si>
-    <t>600745.SH</t>
-  </si>
-  <si>
-    <t>002129.SZ</t>
-  </si>
-  <si>
-    <t>600031.SH</t>
-  </si>
-  <si>
-    <t>600089.SH</t>
-  </si>
-  <si>
-    <t>000725.SZ</t>
-  </si>
-  <si>
-    <t>002475.SZ</t>
-  </si>
-  <si>
-    <t>688036.SH</t>
-  </si>
-  <si>
-    <t>601877.SH</t>
-  </si>
-  <si>
-    <t>600522.SH</t>
-  </si>
-  <si>
-    <t>601138.SH</t>
-  </si>
-  <si>
-    <t>300014.SZ</t>
-  </si>
-  <si>
-    <t>603501.SH</t>
-  </si>
-  <si>
-    <t>603806.SH</t>
-  </si>
-  <si>
-    <t>5.64%</t>
-  </si>
-  <si>
-    <t>5.00%</t>
-  </si>
-  <si>
-    <t>3.99%</t>
-  </si>
-  <si>
-    <t>2.80%</t>
-  </si>
-  <si>
-    <t>2.66%</t>
-  </si>
-  <si>
-    <t>2.43%</t>
-  </si>
-  <si>
-    <t>2.30%</t>
-  </si>
-  <si>
-    <t>2.25%</t>
-  </si>
-  <si>
-    <t>2.12%</t>
-  </si>
-  <si>
-    <t>1.88%</t>
-  </si>
-  <si>
-    <t>1.79%</t>
-  </si>
-  <si>
-    <t>1.63%</t>
-  </si>
-  <si>
-    <t>1.56%</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>1.40%</t>
-  </si>
-  <si>
-    <t>1.39%</t>
+    <t>3.94%</t>
+  </si>
+  <si>
+    <t>2.35%</t>
+  </si>
+  <si>
+    <t>1.66%</t>
+  </si>
+  <si>
+    <t>1.55%</t>
   </si>
   <si>
     <t>1.32%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
-  </si>
-  <si>
-    <t>1.22%</t>
-  </si>
-  <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
-    <t>宁德时代</t>
-  </si>
-  <si>
-    <t>阳光电源</t>
-  </si>
-  <si>
-    <t>通威股份</t>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>海康威视</t>
-  </si>
-  <si>
-    <t>闻泰科技</t>
-  </si>
-  <si>
-    <t>中环股份</t>
-  </si>
-  <si>
-    <t>三一重工</t>
-  </si>
-  <si>
-    <t>特变电工</t>
-  </si>
-  <si>
-    <t>京东方A</t>
-  </si>
-  <si>
-    <t>立讯精密</t>
-  </si>
-  <si>
-    <t>传音控股</t>
-  </si>
-  <si>
-    <t>正泰电器</t>
-  </si>
-  <si>
-    <t>中天科技</t>
-  </si>
-  <si>
-    <t>工业富联</t>
-  </si>
-  <si>
-    <t>亿纬锂能</t>
-  </si>
-  <si>
-    <t>韦尔股份</t>
-  </si>
-  <si>
-    <t>福斯特</t>
-  </si>
-  <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
-    <t>动力电池系统</t>
-  </si>
-  <si>
-    <t>电站系统集成(不含自制产品)</t>
-  </si>
-  <si>
-    <t>配合饲料</t>
-  </si>
-  <si>
-    <t>运营商网络</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>前端音视频产品</t>
-  </si>
-  <si>
-    <t>手机及配件</t>
-  </si>
-  <si>
-    <t>新能源材料</t>
-  </si>
-  <si>
-    <t>挖掘机械</t>
-  </si>
-  <si>
-    <t>新能源产品及集成工程</t>
-  </si>
-  <si>
-    <t>显示器件业务</t>
-  </si>
-  <si>
-    <t>消费性电子</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>太阳能电池组件</t>
-  </si>
-  <si>
-    <t>商品贸易</t>
-  </si>
-  <si>
-    <t>3C电子产品</t>
-  </si>
-  <si>
-    <t>锂离子电池</t>
-  </si>
-  <si>
-    <t>CMOS图像传感器产品</t>
-  </si>
-  <si>
-    <t>EVA胶膜</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>61.09%</t>
-  </si>
-  <si>
-    <t>9.78%</t>
-  </si>
-  <si>
-    <t>-0.15%</t>
-  </si>
-  <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>36.18%</t>
-  </si>
-  <si>
-    <t>-4.98%</t>
-  </si>
-  <si>
-    <t>44.06%</t>
-  </si>
-  <si>
-    <t>-14.61%</t>
-  </si>
-  <si>
-    <t>29.00%</t>
-  </si>
-  <si>
-    <t>7.93%</t>
-  </si>
-  <si>
-    <t>-15.69%</t>
-  </si>
-  <si>
-    <t>45.11%</t>
-  </si>
-  <si>
-    <t>-8.67%</t>
-  </si>
-  <si>
-    <t>-7.49%</t>
-  </si>
-  <si>
-    <t>-7.97%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>30.18%</t>
-  </si>
-  <si>
-    <t>41.70%</t>
-  </si>
-  <si>
-    <t>一级标签</t>
-  </si>
-  <si>
-    <t>标签占比</t>
-  </si>
-  <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>电子</t>
-  </si>
-  <si>
-    <t>锂电池</t>
-  </si>
-  <si>
-    <t>通信</t>
-  </si>
-  <si>
-    <t>饲料养殖</t>
-  </si>
-  <si>
-    <t>机械设备</t>
-  </si>
-  <si>
-    <t>电气设备</t>
-  </si>
-  <si>
-    <t xml:space="preserve">锂电池 </t>
-  </si>
-  <si>
-    <t>集成电路</t>
-  </si>
-  <si>
-    <t>35.57%</t>
-  </si>
-  <si>
-    <t>21.94%</t>
-  </si>
-  <si>
-    <t>15.39%</t>
-  </si>
-  <si>
-    <t>8.39%</t>
-  </si>
-  <si>
-    <t>5.80%</t>
-  </si>
-  <si>
-    <t>3.89%</t>
-  </si>
-  <si>
-    <t>3.71%</t>
-  </si>
-  <si>
-    <t>2.73%</t>
-  </si>
-  <si>
-    <t>2.57%</t>
   </si>
 </sst>
 </file>
@@ -951,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1014,16 +1011,16 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.064836999224328</v>
+      </c>
+      <c r="C3">
         <v>1.01362134279036</v>
       </c>
-      <c r="C3">
-        <v>1.064836999224328</v>
-      </c>
       <c r="D3">
+        <v>1.053756818581735</v>
+      </c>
+      <c r="E3">
         <v>1.017490203574501</v>
-      </c>
-      <c r="E3">
-        <v>1.053756818581735</v>
       </c>
       <c r="F3">
         <v>1.037426341042731</v>
@@ -1040,16 +1037,16 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.079573026780003</v>
+      </c>
+      <c r="C4">
         <v>1.054082372854034</v>
       </c>
-      <c r="C4">
-        <v>1.079573026780003</v>
-      </c>
       <c r="D4">
+        <v>1.055076544078832</v>
+      </c>
+      <c r="E4">
         <v>1.031922010895537</v>
-      </c>
-      <c r="E4">
-        <v>1.055076544078832</v>
       </c>
       <c r="F4">
         <v>1.055163488652101</v>
@@ -1066,16 +1063,16 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.086848968240705</v>
+      </c>
+      <c r="C5">
         <v>1.040944628032562</v>
       </c>
-      <c r="C5">
-        <v>1.086848968240705</v>
-      </c>
       <c r="D5">
+        <v>1.053580855182122</v>
+      </c>
+      <c r="E5">
         <v>1.011851285482175</v>
-      </c>
-      <c r="E5">
-        <v>1.053580855182122</v>
       </c>
       <c r="F5">
         <v>1.048306434234391</v>
@@ -1092,16 +1089,16 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.132719877079329</v>
+      </c>
+      <c r="C6">
         <v>1.046667203997743</v>
       </c>
-      <c r="C6">
-        <v>1.132719877079329</v>
-      </c>
       <c r="D6">
+        <v>1.095284180890375</v>
+      </c>
+      <c r="E6">
         <v>0.9891044633470323</v>
-      </c>
-      <c r="E6">
-        <v>1.095284180890375</v>
       </c>
       <c r="F6">
         <v>1.06594393132862</v>
@@ -1118,16 +1115,16 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.118095518166899</v>
+      </c>
+      <c r="C7">
         <v>1.055613766422181</v>
       </c>
-      <c r="C7">
-        <v>1.118095518166899</v>
-      </c>
       <c r="D7">
+        <v>1.071969030441668</v>
+      </c>
+      <c r="E7">
         <v>1.001624773009653</v>
-      </c>
-      <c r="E7">
-        <v>1.071969030441668</v>
       </c>
       <c r="F7">
         <v>1.0618257720101</v>
@@ -1144,16 +1141,16 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.089060901222685</v>
+      </c>
+      <c r="C8">
         <v>1.068509712259209</v>
       </c>
-      <c r="C8">
-        <v>1.089060901222685</v>
-      </c>
       <c r="D8">
+        <v>1.02841808903748</v>
+      </c>
+      <c r="E8">
         <v>1.008410589697027</v>
-      </c>
-      <c r="E8">
-        <v>1.02841808903748</v>
       </c>
       <c r="F8">
         <v>1.0485998230541</v>
@@ -1170,16 +1167,16 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.132395423494981</v>
+      </c>
+      <c r="C9">
         <v>1.094543402917708</v>
       </c>
-      <c r="C9">
-        <v>1.132395423494981</v>
-      </c>
       <c r="D9">
+        <v>1.064666549357733</v>
+      </c>
+      <c r="E9">
         <v>1.018063652872025</v>
-      </c>
-      <c r="E9">
-        <v>1.064666549357733</v>
       </c>
       <c r="F9">
         <v>1.077417257160612</v>
@@ -1196,16 +1193,16 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.118211904329259</v>
+      </c>
+      <c r="C10">
         <v>1.109534939953252</v>
       </c>
-      <c r="C10">
-        <v>1.118211904329259</v>
-      </c>
       <c r="D10">
+        <v>1.056220306176315</v>
+      </c>
+      <c r="E10">
         <v>1.030201663002963</v>
-      </c>
-      <c r="E10">
-        <v>1.056220306176315</v>
       </c>
       <c r="F10">
         <v>1.078542203365447</v>
@@ -1222,16 +1219,16 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.085541383672937</v>
+      </c>
+      <c r="C11">
         <v>1.101958571773999</v>
       </c>
-      <c r="C11">
-        <v>1.085541383672937</v>
-      </c>
       <c r="D11">
+        <v>1.028506070737287</v>
+      </c>
+      <c r="E11">
         <v>1.042913122431425</v>
-      </c>
-      <c r="E11">
-        <v>1.028506070737287</v>
       </c>
       <c r="F11">
         <v>1.064729787153912</v>
@@ -1248,16 +1245,16 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.087277505194144</v>
+      </c>
+      <c r="C12">
         <v>1.084871443539937</v>
       </c>
-      <c r="C12">
-        <v>1.087277505194144</v>
-      </c>
       <c r="D12">
+        <v>1.02569065634348</v>
+      </c>
+      <c r="E12">
         <v>1.02733441651534</v>
-      </c>
-      <c r="E12">
-        <v>1.02569065634348</v>
       </c>
       <c r="F12">
         <v>1.056293505398225</v>
@@ -1274,16 +1271,16 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.102710583442528</v>
+      </c>
+      <c r="C13">
         <v>1.122027887482873</v>
       </c>
-      <c r="C13">
-        <v>1.102710583442528</v>
-      </c>
       <c r="D13">
+        <v>1.045046630300897</v>
+      </c>
+      <c r="E13">
         <v>1.060307751123005</v>
-      </c>
-      <c r="E13">
-        <v>1.045046630300897</v>
       </c>
       <c r="F13">
         <v>1.082523213087326</v>
@@ -1300,16 +1297,16 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.07041606147414</v>
+      </c>
+      <c r="C14">
         <v>1.093737406302894</v>
       </c>
-      <c r="C14">
-        <v>1.07041606147414</v>
-      </c>
       <c r="D14">
+        <v>1.016892486362836</v>
+      </c>
+      <c r="E14">
         <v>1.052375035840581</v>
-      </c>
-      <c r="E14">
-        <v>1.016892486362836</v>
       </c>
       <c r="F14">
         <v>1.058355247495113</v>
@@ -1326,16 +1323,16 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.11199543075996</v>
+      </c>
+      <c r="C15">
         <v>1.101636173128073</v>
       </c>
-      <c r="C15">
-        <v>1.11199543075996</v>
-      </c>
       <c r="D15">
+        <v>1.051029385887735</v>
+      </c>
+      <c r="E15">
         <v>1.05715377998662</v>
-      </c>
-      <c r="E15">
-        <v>1.051029385887735</v>
       </c>
       <c r="F15">
         <v>1.080453692440597</v>
@@ -1352,16 +1349,16 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.141350292764891</v>
+      </c>
+      <c r="C16">
         <v>1.114935117272507</v>
       </c>
-      <c r="C16">
-        <v>1.141350292764891</v>
-      </c>
       <c r="D16">
+        <v>1.095284180890375</v>
+      </c>
+      <c r="E16">
         <v>1.058109528815827</v>
-      </c>
-      <c r="E16">
-        <v>1.095284180890375</v>
       </c>
       <c r="F16">
         <v>1.1024197799359</v>
@@ -1378,16 +1375,16 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.169311773426793</v>
+      </c>
+      <c r="C17">
         <v>1.107922946723624</v>
       </c>
-      <c r="C17">
-        <v>1.169311773426793</v>
-      </c>
       <c r="D17">
+        <v>1.131180714411402</v>
+      </c>
+      <c r="E17">
         <v>1.035075982031922</v>
-      </c>
-      <c r="E17">
-        <v>1.131180714411402</v>
       </c>
       <c r="F17">
         <v>1.110872854148435</v>
@@ -1404,16 +1401,16 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.170550022878105</v>
+      </c>
+      <c r="C18">
         <v>1.098009188361409</v>
       </c>
-      <c r="C18">
-        <v>1.170550022878105</v>
-      </c>
       <c r="D18">
+        <v>1.131444659510822</v>
+      </c>
+      <c r="E18">
         <v>1.019784000764599</v>
-      </c>
-      <c r="E18">
-        <v>1.131444659510822</v>
       </c>
       <c r="F18">
         <v>1.104946967878734</v>
@@ -1430,16 +1427,16 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.143111330235736</v>
+      </c>
+      <c r="C19">
         <v>1.0702829048118</v>
       </c>
-      <c r="C19">
-        <v>1.143111330235736</v>
-      </c>
       <c r="D19">
+        <v>1.11516804504663</v>
+      </c>
+      <c r="E19">
         <v>1.003058396253465</v>
-      </c>
-      <c r="E19">
-        <v>1.11516804504663</v>
       </c>
       <c r="F19">
         <v>1.082905169086908</v>
@@ -1456,16 +1453,16 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.173343402505447</v>
+      </c>
+      <c r="C20">
         <v>1.077375675022165</v>
       </c>
-      <c r="C20">
-        <v>1.173343402505447</v>
-      </c>
       <c r="D20">
+        <v>1.159246876649657</v>
+      </c>
+      <c r="E20">
         <v>1.002580521838861</v>
-      </c>
-      <c r="E20">
-        <v>1.159246876649657</v>
       </c>
       <c r="F20">
         <v>1.103136619004032</v>
@@ -1482,16 +1479,16 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.114061617230356</v>
+      </c>
+      <c r="C21">
         <v>1.030305472717015</v>
       </c>
-      <c r="C21">
-        <v>1.114061617230356</v>
-      </c>
       <c r="D21">
+        <v>1.100651064578567</v>
+      </c>
+      <c r="E21">
         <v>0.9659753416802064</v>
-      </c>
-      <c r="E21">
-        <v>1.100651064578567</v>
       </c>
       <c r="F21">
         <v>1.052748374051536</v>
@@ -1508,16 +1505,16 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.097880501839255</v>
+      </c>
+      <c r="C22">
         <v>1.019102119771097</v>
       </c>
-      <c r="C22">
-        <v>1.097880501839255</v>
-      </c>
       <c r="D22">
+        <v>1.077951786028506</v>
+      </c>
+      <c r="E22">
         <v>0.9589983752269904</v>
-      </c>
-      <c r="E22">
-        <v>1.077951786028506</v>
       </c>
       <c r="F22">
         <v>1.038483195716462</v>
@@ -1534,16 +1531,16 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.101091952976316</v>
+      </c>
+      <c r="C23">
         <v>1.030547271701459</v>
       </c>
-      <c r="C23">
-        <v>1.101091952976316</v>
-      </c>
       <c r="D23">
+        <v>1.048917825092381</v>
+      </c>
+      <c r="E23">
         <v>0.9513523845933288</v>
-      </c>
-      <c r="E23">
-        <v>1.048917825092381</v>
       </c>
       <c r="F23">
         <v>1.032977358590871</v>
@@ -1560,16 +1557,16 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.137013328468826</v>
+      </c>
+      <c r="C24">
         <v>1.043282018215524</v>
       </c>
-      <c r="C24">
-        <v>1.137013328468826</v>
-      </c>
       <c r="D24">
+        <v>1.067569945451346</v>
+      </c>
+      <c r="E24">
         <v>0.9568957278027336</v>
-      </c>
-      <c r="E24">
-        <v>1.067569945451346</v>
       </c>
       <c r="F24">
         <v>1.051190254984607</v>
@@ -1586,16 +1583,16 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.143360464903067</v>
+      </c>
+      <c r="C25">
         <v>1.006044974611107</v>
       </c>
-      <c r="C25">
-        <v>1.143360464903067</v>
-      </c>
       <c r="D25">
+        <v>1.064666549357733</v>
+      </c>
+      <c r="E25">
         <v>0.9369205772722928</v>
-      </c>
-      <c r="E25">
-        <v>1.064666549357733</v>
       </c>
       <c r="F25">
         <v>1.03774814153605</v>
@@ -1612,16 +1609,16 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.139734654198959</v>
+      </c>
+      <c r="C26">
         <v>1.000080599661481</v>
       </c>
-      <c r="C26">
-        <v>1.139734654198959</v>
-      </c>
       <c r="D26">
+        <v>1.060355446067218</v>
+      </c>
+      <c r="E26">
         <v>0.9321418331262543</v>
-      </c>
-      <c r="E26">
-        <v>1.060355446067218</v>
       </c>
       <c r="F26">
         <v>1.033078133263478</v>
@@ -1638,16 +1635,16 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.122197425865832</v>
+      </c>
+      <c r="C27">
         <v>0.972837914080761</v>
       </c>
-      <c r="C27">
-        <v>1.122197425865832</v>
-      </c>
       <c r="D27">
+        <v>1.05806792187225</v>
+      </c>
+      <c r="E27">
         <v>0.9242091178438306</v>
-      </c>
-      <c r="E27">
-        <v>1.05806792187225</v>
       </c>
       <c r="F27">
         <v>1.019328094915668</v>
@@ -1664,16 +1661,16 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.160187383831868</v>
+      </c>
+      <c r="C28">
         <v>0.9825098734585316</v>
       </c>
-      <c r="C28">
-        <v>1.160187383831868</v>
-      </c>
       <c r="D28">
+        <v>1.059827555868379</v>
+      </c>
+      <c r="E28">
         <v>0.9367294275064513</v>
-      </c>
-      <c r="E28">
-        <v>1.059827555868379</v>
       </c>
       <c r="F28">
         <v>1.034813560166308</v>
@@ -1690,16 +1687,16 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.196258304680301</v>
+      </c>
+      <c r="C29">
         <v>1.009752559039252</v>
       </c>
-      <c r="C29">
-        <v>1.196258304680301</v>
-      </c>
       <c r="D29">
+        <v>1.096427942987859</v>
+      </c>
+      <c r="E29">
         <v>0.9573736022173374</v>
-      </c>
-      <c r="E29">
-        <v>1.096427942987859</v>
       </c>
       <c r="F29">
         <v>1.064953102231187</v>
@@ -1716,16 +1713,16 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.214785032647653</v>
+      </c>
+      <c r="C30">
         <v>1.028612879825905</v>
       </c>
-      <c r="C30">
-        <v>1.214785032647653</v>
-      </c>
       <c r="D30">
+        <v>1.123174379729016</v>
+      </c>
+      <c r="E30">
         <v>0.9716142597725317</v>
-      </c>
-      <c r="E30">
-        <v>1.123174379729016</v>
       </c>
       <c r="F30">
         <v>1.084546637993776</v>
@@ -1742,16 +1739,16 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.194476137689634</v>
+      </c>
+      <c r="C31">
         <v>1.027403884903684</v>
       </c>
-      <c r="C31">
-        <v>1.194476137689634</v>
-      </c>
       <c r="D31">
+        <v>1.114464191448179</v>
+      </c>
+      <c r="E31">
         <v>0.9849947433814393</v>
-      </c>
-      <c r="E31">
-        <v>1.114464191448179</v>
       </c>
       <c r="F31">
         <v>1.080334739355734</v>
@@ -1768,16 +1765,16 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.170724968350102</v>
+      </c>
+      <c r="C32">
         <v>1.035786249697751</v>
       </c>
-      <c r="C32">
-        <v>1.170724968350102</v>
-      </c>
       <c r="D32">
+        <v>1.093612528594053</v>
+      </c>
+      <c r="E32">
         <v>0.9969416037465353</v>
-      </c>
-      <c r="E32">
-        <v>1.093612528594053</v>
       </c>
       <c r="F32">
         <v>1.07426633759711</v>
@@ -1794,16 +1791,16 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.126369612185044</v>
+      </c>
+      <c r="C33">
         <v>1.012412347868139</v>
       </c>
-      <c r="C33">
-        <v>1.126369612185044</v>
-      </c>
       <c r="D33">
+        <v>1.058683793770896</v>
+      </c>
+      <c r="E33">
         <v>0.9795469750549555</v>
-      </c>
-      <c r="E33">
-        <v>1.058683793770896</v>
       </c>
       <c r="F33">
         <v>1.044253182219759</v>
@@ -1820,16 +1817,16 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.125951491017229</v>
+      </c>
+      <c r="C34">
         <v>1.010880954299992</v>
       </c>
-      <c r="C34">
-        <v>1.125951491017229</v>
-      </c>
       <c r="D34">
+        <v>1.04944571529122</v>
+      </c>
+      <c r="E34">
         <v>0.9789735257574309</v>
-      </c>
-      <c r="E34">
-        <v>1.04944571529122</v>
       </c>
       <c r="F34">
         <v>1.041312921591468</v>
@@ -1846,16 +1843,16 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.080099750203639</v>
+      </c>
+      <c r="C35">
         <v>1.00338518578222</v>
       </c>
-      <c r="C35">
-        <v>1.080099750203639</v>
-      </c>
       <c r="D35">
+        <v>1.015396797466127</v>
+      </c>
+      <c r="E35">
         <v>0.9725700086017395</v>
-      </c>
-      <c r="E35">
-        <v>1.015396797466127</v>
       </c>
       <c r="F35">
         <v>1.017862935513431</v>
@@ -1872,16 +1869,16 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.071389372569089</v>
+      </c>
+      <c r="C36">
         <v>0.9957282179414848</v>
       </c>
-      <c r="C36">
-        <v>1.071389372569089</v>
-      </c>
       <c r="D36">
+        <v>1.010909730775999</v>
+      </c>
+      <c r="E36">
         <v>0.9663576412118896</v>
-      </c>
-      <c r="E36">
-        <v>1.010909730775999</v>
       </c>
       <c r="F36">
         <v>1.011096240624616</v>
@@ -1898,16 +1895,16 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.047416243955229</v>
+      </c>
+      <c r="C37">
         <v>0.9769484968163133</v>
       </c>
-      <c r="C37">
-        <v>1.047416243955229</v>
-      </c>
       <c r="D37">
+        <v>1.004487066690128</v>
+      </c>
+      <c r="E37">
         <v>0.9676956895727802</v>
-      </c>
-      <c r="E37">
-        <v>1.004487066690128</v>
       </c>
       <c r="F37">
         <v>0.9991368742586126</v>
@@ -1924,16 +1921,16 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.095415374640601</v>
+      </c>
+      <c r="C38">
         <v>1.009027162085919</v>
       </c>
-      <c r="C38">
-        <v>1.095415374640601</v>
-      </c>
       <c r="D38">
+        <v>1.029737814534577</v>
+      </c>
+      <c r="E38">
         <v>0.9868106661569339</v>
-      </c>
-      <c r="E38">
-        <v>1.029737814534577</v>
       </c>
       <c r="F38">
         <v>1.030247754354508</v>
@@ -1950,16 +1947,16 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.096756975004088</v>
+      </c>
+      <c r="C39">
         <v>1.014104940759249</v>
       </c>
-      <c r="C39">
-        <v>1.096756975004088</v>
-      </c>
       <c r="D39">
+        <v>1.020675699454513</v>
+      </c>
+      <c r="E39">
         <v>0.9808850234158463</v>
-      </c>
-      <c r="E39">
-        <v>1.020675699454513</v>
       </c>
       <c r="F39">
         <v>1.028105659658424</v>
@@ -1976,16 +1973,16 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.092751255036991</v>
+      </c>
+      <c r="C40">
         <v>1.021600709277021</v>
       </c>
-      <c r="C40">
-        <v>1.092751255036991</v>
-      </c>
       <c r="D40">
+        <v>1.014868907267288</v>
+      </c>
+      <c r="E40">
         <v>0.9887221638153493</v>
-      </c>
-      <c r="E40">
-        <v>1.014868907267288</v>
       </c>
       <c r="F40">
         <v>1.029485758849162</v>
@@ -2002,16 +1999,16 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>1.022998650553657</v>
+      </c>
+      <c r="C41">
         <v>0.990811638591118</v>
       </c>
-      <c r="C41">
-        <v>1.022998650553657</v>
-      </c>
       <c r="D41">
+        <v>0.9515220834066513</v>
+      </c>
+      <c r="E41">
         <v>0.9669310905094142</v>
-      </c>
-      <c r="E41">
-        <v>0.9515220834066513</v>
       </c>
       <c r="F41">
         <v>0.9830658657652102</v>
@@ -2028,16 +2025,16 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>1.024189476523347</v>
+      </c>
+      <c r="C42">
         <v>0.9978238091400017</v>
       </c>
-      <c r="C42">
-        <v>1.024189476523347</v>
-      </c>
       <c r="D42">
+        <v>0.9544254795002639</v>
+      </c>
+      <c r="E42">
         <v>0.9774443276306986</v>
-      </c>
-      <c r="E42">
-        <v>0.9544254795002639</v>
       </c>
       <c r="F42">
         <v>0.9884707731985778</v>
@@ -2054,16 +2051,16 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9697246010415811</v>
+      </c>
+      <c r="C43">
         <v>0.9675989360844685</v>
       </c>
-      <c r="C43">
-        <v>0.9697246010415811</v>
-      </c>
       <c r="D43">
+        <v>0.902692240014077</v>
+      </c>
+      <c r="E43">
         <v>0.963681544490108</v>
-      </c>
-      <c r="E43">
-        <v>0.902692240014077</v>
       </c>
       <c r="F43">
         <v>0.9509243304075586</v>
@@ -2080,16 +2077,16 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.9405647215503586</v>
+      </c>
+      <c r="C44">
         <v>0.9297976948496817</v>
       </c>
-      <c r="C44">
-        <v>0.9405647215503586</v>
-      </c>
       <c r="D44">
+        <v>0.872514516980468</v>
+      </c>
+      <c r="E44">
         <v>0.9363471279747683</v>
-      </c>
-      <c r="E44">
-        <v>0.872514516980468</v>
       </c>
       <c r="F44">
         <v>0.9198060153388192</v>
@@ -2106,16 +2103,16 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9575414961981824</v>
+      </c>
+      <c r="C45">
         <v>0.9245587168533893</v>
       </c>
-      <c r="C45">
-        <v>0.9575414961981824</v>
-      </c>
       <c r="D45">
+        <v>0.8790251627661446</v>
+      </c>
+      <c r="E45">
         <v>0.9252604415559591</v>
-      </c>
-      <c r="E45">
-        <v>0.8790251627661446</v>
       </c>
       <c r="F45">
         <v>0.9215964543434189</v>
@@ -2132,16 +2129,16 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9878844301670798</v>
+      </c>
+      <c r="C46">
         <v>0.9393890545659709</v>
       </c>
-      <c r="C46">
-        <v>0.9878844301670798</v>
-      </c>
       <c r="D46">
+        <v>0.9113144465951082</v>
+      </c>
+      <c r="E46">
         <v>0.9345312051992736</v>
-      </c>
-      <c r="E46">
-        <v>0.9113144465951082</v>
       </c>
       <c r="F46">
         <v>0.9432797841318581</v>
@@ -2158,16 +2155,16 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>1.003011366253994</v>
+      </c>
+      <c r="C47">
         <v>0.9285886999274603</v>
       </c>
-      <c r="C47">
-        <v>1.003011366253994</v>
-      </c>
       <c r="D47">
+        <v>0.9279429878585254</v>
+      </c>
+      <c r="E47">
         <v>0.9255471662047214</v>
-      </c>
-      <c r="E47">
-        <v>0.9279429878585254</v>
       </c>
       <c r="F47">
         <v>0.9462725550611754</v>
@@ -2184,16 +2181,16 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.957573314623156</v>
+      </c>
+      <c r="C48">
         <v>0.9022326106230354</v>
       </c>
-      <c r="C48">
-        <v>0.957573314623156</v>
-      </c>
       <c r="D48">
+        <v>0.891870490937885</v>
+      </c>
+      <c r="E48">
         <v>0.8985950492210647</v>
-      </c>
-      <c r="E48">
-        <v>0.891870490937885</v>
       </c>
       <c r="F48">
         <v>0.9125678663512853</v>
@@ -2210,16 +2207,16 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9641298964915476</v>
+      </c>
+      <c r="C49">
         <v>0.8972354316111872</v>
       </c>
-      <c r="C49">
-        <v>0.9641298964915476</v>
-      </c>
       <c r="D49">
+        <v>0.8978532465247228</v>
+      </c>
+      <c r="E49">
         <v>0.9087259868106661</v>
-      </c>
-      <c r="E49">
-        <v>0.8978532465247228</v>
       </c>
       <c r="F49">
         <v>0.916986140359531</v>
@@ -2236,16 +2233,16 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9797492298432793</v>
+      </c>
+      <c r="C50">
         <v>0.9126299669541389</v>
       </c>
-      <c r="C50">
-        <v>0.9797492298432793</v>
-      </c>
       <c r="D50">
+        <v>0.9011965511173675</v>
+      </c>
+      <c r="E50">
         <v>0.9298480359361559</v>
-      </c>
-      <c r="E50">
-        <v>0.9011965511173675</v>
       </c>
       <c r="F50">
         <v>0.9308559459627355</v>
@@ -2262,16 +2259,16 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9930284130093138</v>
+      </c>
+      <c r="C51">
         <v>0.9109373740630291</v>
       </c>
-      <c r="C51">
-        <v>0.9930284130093138</v>
-      </c>
       <c r="D51">
+        <v>0.9162414217842689</v>
+      </c>
+      <c r="E51">
         <v>0.9238268183121475</v>
-      </c>
-      <c r="E51">
-        <v>0.9162414217842689</v>
       </c>
       <c r="F51">
         <v>0.9360085067921898</v>
@@ -2288,16 +2285,16 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9594343262556518</v>
+      </c>
+      <c r="C52">
         <v>0.8936890465060048</v>
       </c>
-      <c r="C52">
-        <v>0.9594343262556518</v>
-      </c>
       <c r="D52">
+        <v>0.8931022347351749</v>
+      </c>
+      <c r="E52">
         <v>0.9157029532638822</v>
-      </c>
-      <c r="E52">
-        <v>0.8931022347351749</v>
       </c>
       <c r="F52">
         <v>0.9154821401901785</v>
@@ -2314,16 +2311,16 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9743116683378479</v>
+      </c>
+      <c r="C53">
         <v>0.906746191665995</v>
       </c>
-      <c r="C53">
-        <v>0.9743116683378479</v>
-      </c>
       <c r="D53">
+        <v>0.9136019707900757</v>
+      </c>
+      <c r="E53">
         <v>0.9297524610532352</v>
-      </c>
-      <c r="E53">
-        <v>0.9136019707900757</v>
       </c>
       <c r="F53">
         <v>0.9311030729617884</v>
@@ -2340,16 +2337,16 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9522220340594204</v>
+      </c>
+      <c r="C54">
         <v>0.9006206173934069</v>
       </c>
-      <c r="C54">
-        <v>0.9522220340594204</v>
-      </c>
       <c r="D54">
+        <v>0.8989970086222066</v>
+      </c>
+      <c r="E54">
         <v>0.9304214852336806</v>
-      </c>
-      <c r="E54">
-        <v>0.8989970086222066</v>
       </c>
       <c r="F54">
         <v>0.9205652863271787</v>
@@ -2366,16 +2363,16 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9211961771261079</v>
+      </c>
+      <c r="C55">
         <v>0.8816796969452729</v>
       </c>
-      <c r="C55">
-        <v>0.9211961771261079</v>
-      </c>
       <c r="D55">
+        <v>0.8793770895653704</v>
+      </c>
+      <c r="E55">
         <v>0.9189524992831883</v>
-      </c>
-      <c r="E55">
-        <v>0.8793770895653704</v>
       </c>
       <c r="F55">
         <v>0.9003013657299849</v>
@@ -2392,16 +2389,16 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9254323106583666</v>
+      </c>
+      <c r="C56">
         <v>0.8832110905134199</v>
       </c>
-      <c r="C56">
-        <v>0.9254323106583666</v>
-      </c>
       <c r="D56">
+        <v>0.8773535104698222</v>
+      </c>
+      <c r="E56">
         <v>0.9163719774443276</v>
-      </c>
-      <c r="E56">
-        <v>0.8773535104698222</v>
       </c>
       <c r="F56">
         <v>0.9005922222714842</v>
@@ -2418,16 +2415,16 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.966795915517327</v>
+      </c>
+      <c r="C57">
         <v>0.9086805835415491</v>
       </c>
-      <c r="C57">
-        <v>0.966795915517327</v>
-      </c>
       <c r="D57">
+        <v>0.909466830899173</v>
+      </c>
+      <c r="E57">
         <v>0.9320462582433336</v>
-      </c>
-      <c r="E57">
-        <v>0.909466830899173</v>
       </c>
       <c r="F57">
         <v>0.9292473970503456</v>
@@ -2444,16 +2441,16 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9613277397957485</v>
+      </c>
+      <c r="C58">
         <v>0.9056983960667365</v>
       </c>
-      <c r="C58">
-        <v>0.9613277397957485</v>
-      </c>
       <c r="D58">
+        <v>0.9016364596163997</v>
+      </c>
+      <c r="E58">
         <v>0.9278409633948198</v>
-      </c>
-      <c r="E58">
-        <v>0.9016364596163997</v>
       </c>
       <c r="F58">
         <v>0.9241258897184261</v>
@@ -2470,16 +2467,16 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9855462042326004</v>
+      </c>
+      <c r="C59">
         <v>0.9100507777867334</v>
       </c>
-      <c r="C59">
-        <v>0.9855462042326004</v>
-      </c>
       <c r="D59">
+        <v>0.9294386767552348</v>
+      </c>
+      <c r="E59">
         <v>0.924878142024276</v>
-      </c>
-      <c r="E59">
-        <v>0.9294386767552348</v>
       </c>
       <c r="F59">
         <v>0.9374784501997111</v>
@@ -2496,16 +2493,16 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9740848425701178</v>
+      </c>
+      <c r="C60">
         <v>0.9110985733859919</v>
       </c>
-      <c r="C60">
-        <v>0.9740848425701178</v>
-      </c>
       <c r="D60">
+        <v>0.9236318845680098</v>
+      </c>
+      <c r="E60">
         <v>0.928605562458186</v>
-      </c>
-      <c r="E60">
-        <v>0.9236318845680098</v>
       </c>
       <c r="F60">
         <v>0.9343552157455763</v>
@@ -2522,16 +2519,16 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.987651620598789</v>
+      </c>
+      <c r="C61">
         <v>0.9287498992504233</v>
       </c>
-      <c r="C61">
-        <v>0.987651620598789</v>
-      </c>
       <c r="D61">
+        <v>0.9321661094492346</v>
+      </c>
+      <c r="E61">
         <v>0.9307082098824428</v>
-      </c>
-      <c r="E61">
-        <v>0.9321661094492346</v>
       </c>
       <c r="F61">
         <v>0.9448189597952223</v>
@@ -2548,16 +2545,16 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.9912429189262187</v>
+      </c>
+      <c r="C62">
         <v>0.9536551946481826</v>
       </c>
-      <c r="C62">
-        <v>0.9912429189262187</v>
-      </c>
       <c r="D62">
+        <v>0.929878585254267</v>
+      </c>
+      <c r="E62">
         <v>0.9412214470037275</v>
-      </c>
-      <c r="E62">
-        <v>0.929878585254267</v>
       </c>
       <c r="F62">
         <v>0.9539995364580989</v>
@@ -2574,16 +2571,16 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.9972846580704282</v>
+      </c>
+      <c r="C63">
         <v>0.9527685983718869</v>
       </c>
-      <c r="C63">
-        <v>0.9972846580704282</v>
-      </c>
       <c r="D63">
+        <v>0.9511701566074255</v>
+      </c>
+      <c r="E63">
         <v>0.9420816209500144</v>
-      </c>
-      <c r="E63">
-        <v>0.9511701566074255</v>
       </c>
       <c r="F63">
         <v>0.9608262584999387</v>
@@ -2600,16 +2597,16 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9818758502164342</v>
+      </c>
+      <c r="C64">
         <v>0.9534133956637383</v>
       </c>
-      <c r="C64">
-        <v>0.9818758502164342</v>
-      </c>
       <c r="D64">
+        <v>0.934453633644202</v>
+      </c>
+      <c r="E64">
         <v>0.9384497753990251</v>
-      </c>
-      <c r="E64">
-        <v>0.934453633644202</v>
       </c>
       <c r="F64">
         <v>0.9520481637308499</v>
@@ -2626,16 +2623,16 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9747396466377068</v>
+      </c>
+      <c r="C65">
         <v>0.9513984041267026</v>
       </c>
-      <c r="C65">
-        <v>0.9747396466377068</v>
-      </c>
       <c r="D65">
+        <v>0.9263593172620094</v>
+      </c>
+      <c r="E65">
         <v>0.928605562458186</v>
-      </c>
-      <c r="E65">
-        <v>0.9263593172620094</v>
       </c>
       <c r="F65">
         <v>0.9452757326211512</v>
@@ -2652,16 +2649,16 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9524671215919324</v>
+      </c>
+      <c r="C66">
         <v>0.9435802369630049</v>
       </c>
-      <c r="C66">
-        <v>0.9524671215919324</v>
-      </c>
       <c r="D66">
+        <v>0.9106105929966566</v>
+      </c>
+      <c r="E66">
         <v>0.9143649049029915</v>
-      </c>
-      <c r="E66">
-        <v>0.9106105929966566</v>
       </c>
       <c r="F66">
         <v>0.9302557141136463</v>
@@ -2678,16 +2675,16 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9278043537561812</v>
+      </c>
+      <c r="C67">
         <v>0.9206093334407996</v>
       </c>
-      <c r="C67">
-        <v>0.9278043537561812</v>
-      </c>
       <c r="D67">
+        <v>0.8857997536512404</v>
+      </c>
+      <c r="E67">
         <v>0.9030870687183408</v>
-      </c>
-      <c r="E67">
-        <v>0.8857997536512404</v>
       </c>
       <c r="F67">
         <v>0.9093251273916405</v>
@@ -2704,16 +2701,16 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9331816427476655</v>
+      </c>
+      <c r="C68">
         <v>0.9244781171919079</v>
       </c>
-      <c r="C68">
-        <v>0.9331816427476655</v>
-      </c>
       <c r="D68">
+        <v>0.8802569065634347</v>
+      </c>
+      <c r="E68">
         <v>0.9016534454745293</v>
-      </c>
-      <c r="E68">
-        <v>0.8802569065634347</v>
       </c>
       <c r="F68">
         <v>0.9098925279943844</v>
@@ -2730,16 +2727,16 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9573434845406216</v>
+      </c>
+      <c r="C69">
         <v>0.9376158620133797</v>
       </c>
-      <c r="C69">
-        <v>0.9573434845406216</v>
-      </c>
       <c r="D69">
+        <v>0.8934541615344008</v>
+      </c>
+      <c r="E69">
         <v>0.9081525375131416</v>
-      </c>
-      <c r="E69">
-        <v>0.8934541615344008</v>
       </c>
       <c r="F69">
         <v>0.9241415114003859</v>
@@ -2756,16 +2753,16 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9588850704709834</v>
+      </c>
+      <c r="C70">
         <v>0.9358426694607883</v>
       </c>
-      <c r="C70">
-        <v>0.9588850704709834</v>
-      </c>
       <c r="D70">
+        <v>0.8989090269224002</v>
+      </c>
+      <c r="E70">
         <v>0.9062410398547263</v>
-      </c>
-      <c r="E70">
-        <v>0.8989090269224002</v>
       </c>
       <c r="F70">
         <v>0.9249694516772244</v>
@@ -2782,16 +2779,16 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9539997194069288</v>
+      </c>
+      <c r="C71">
         <v>0.9372128637059726</v>
       </c>
-      <c r="C71">
-        <v>0.9539997194069288</v>
-      </c>
       <c r="D71">
+        <v>0.8948618687313038</v>
+      </c>
+      <c r="E71">
         <v>0.9191436490490299</v>
-      </c>
-      <c r="E71">
-        <v>0.8948618687313038</v>
       </c>
       <c r="F71">
         <v>0.9263045252233088</v>
@@ -2808,16 +2805,16 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9988562623197857</v>
+      </c>
+      <c r="C72">
         <v>0.9702587249133554</v>
       </c>
-      <c r="C72">
-        <v>0.9988562623197857</v>
-      </c>
       <c r="D72">
+        <v>0.9245996832658806</v>
+      </c>
+      <c r="E72">
         <v>0.9358692535601644</v>
-      </c>
-      <c r="E72">
-        <v>0.9245996832658806</v>
       </c>
       <c r="F72">
         <v>0.9573959810147965</v>
@@ -2834,16 +2831,16 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9977594639547586</v>
+      </c>
+      <c r="C73">
         <v>0.9624405577496574</v>
       </c>
-      <c r="C73">
-        <v>0.9977594639547586</v>
-      </c>
       <c r="D73">
+        <v>0.936037304240718</v>
+      </c>
+      <c r="E73">
         <v>0.9216285960049699</v>
-      </c>
-      <c r="E73">
-        <v>0.936037304240718</v>
       </c>
       <c r="F73">
         <v>0.954466480487526</v>
@@ -2860,16 +2857,16 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.9944365800504087</v>
+      </c>
+      <c r="C74">
         <v>0.9660675425163215</v>
       </c>
-      <c r="C74">
-        <v>0.9944365800504087</v>
-      </c>
       <c r="D74">
+        <v>0.9349815238430406</v>
+      </c>
+      <c r="E74">
         <v>0.9094905858740323</v>
-      </c>
-      <c r="E74">
-        <v>0.9349815238430406</v>
       </c>
       <c r="F74">
         <v>0.9512440580709507</v>
@@ -2886,16 +2883,16 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.9946952863157321</v>
+      </c>
+      <c r="C75">
         <v>0.9780768920770534</v>
       </c>
-      <c r="C75">
-        <v>0.9946952863157321</v>
-      </c>
       <c r="D75">
+        <v>0.9373570297378144</v>
+      </c>
+      <c r="E75">
         <v>0.9220108955366529</v>
-      </c>
-      <c r="E75">
-        <v>0.9373570297378144</v>
       </c>
       <c r="F75">
         <v>0.9580350259168132</v>
@@ -2912,16 +2909,16 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.011937222781352</v>
+      </c>
+      <c r="C76">
         <v>0.9783186910614976</v>
       </c>
-      <c r="C76">
-        <v>1.011937222781352</v>
-      </c>
       <c r="D76">
+        <v>0.946067218018652</v>
+      </c>
+      <c r="E76">
         <v>0.913695880722546</v>
-      </c>
-      <c r="E76">
-        <v>0.946067218018652</v>
       </c>
       <c r="F76">
         <v>0.9625047531460118</v>
@@ -2938,16 +2935,16 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.9875027952852568</v>
+      </c>
+      <c r="C77">
         <v>0.9771096961392762</v>
       </c>
-      <c r="C77">
-        <v>0.9875027952852568</v>
-      </c>
       <c r="D77">
+        <v>0.9409642794298785</v>
+      </c>
+      <c r="E77">
         <v>0.9083436872789831</v>
-      </c>
-      <c r="E77">
-        <v>0.9409642794298785</v>
       </c>
       <c r="F77">
         <v>0.9534801145333487</v>
@@ -2964,16 +2961,16 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.9833019065865914</v>
+      </c>
+      <c r="C78">
         <v>0.9725155154348352</v>
       </c>
-      <c r="C78">
-        <v>0.9833019065865914</v>
-      </c>
       <c r="D78">
+        <v>0.9388527186345239</v>
+      </c>
+      <c r="E78">
         <v>0.8954410780846793</v>
-      </c>
-      <c r="E78">
-        <v>0.9388527186345239</v>
       </c>
       <c r="F78">
         <v>0.9475278046851574</v>
@@ -2990,16 +2987,16 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.008222176478839</v>
+      </c>
+      <c r="C79">
         <v>0.9741275086644636</v>
       </c>
-      <c r="C79">
-        <v>1.008222176478839</v>
-      </c>
       <c r="D79">
+        <v>0.9543374978004574</v>
+      </c>
+      <c r="E79">
         <v>0.8946764790213132</v>
-      </c>
-      <c r="E79">
-        <v>0.9543374978004574</v>
       </c>
       <c r="F79">
         <v>0.9578409154912685</v>
@@ -3016,16 +3013,16 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.010195961647215</v>
+      </c>
+      <c r="C80">
         <v>0.9774320947852019</v>
       </c>
-      <c r="C80">
-        <v>1.010195961647215</v>
-      </c>
       <c r="D80">
+        <v>0.9507302481083935</v>
+      </c>
+      <c r="E80">
         <v>0.8884641116314632</v>
-      </c>
-      <c r="E80">
-        <v>0.9507302481083935</v>
       </c>
       <c r="F80">
         <v>0.9567056040430684</v>
@@ -3042,16 +3039,16 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.023828313191575</v>
+      </c>
+      <c r="C81">
         <v>0.9716289191585397</v>
       </c>
-      <c r="C81">
-        <v>1.023828313191575</v>
-      </c>
       <c r="D81">
+        <v>0.9735175083582615</v>
+      </c>
+      <c r="E81">
         <v>0.8768995507980503</v>
-      </c>
-      <c r="E81">
-        <v>0.9735175083582615</v>
       </c>
       <c r="F81">
         <v>0.9614685728766066</v>
@@ -3068,16 +3065,16 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.015476504253284</v>
+      </c>
+      <c r="C82">
         <v>0.9575239783992907</v>
       </c>
-      <c r="C82">
-        <v>1.015476504253284</v>
-      </c>
       <c r="D82">
+        <v>0.9692943867675522</v>
+      </c>
+      <c r="E82">
         <v>0.8710694829398834</v>
-      </c>
-      <c r="E82">
-        <v>0.9692943867675522</v>
       </c>
       <c r="F82">
         <v>0.9533410880900026</v>
@@ -3094,16 +3091,16 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.9879733678169083</v>
+      </c>
+      <c r="C83">
         <v>0.9200451358104297</v>
       </c>
-      <c r="C83">
-        <v>0.9879733678169083</v>
-      </c>
       <c r="D83">
+        <v>0.9435157487242654</v>
+      </c>
+      <c r="E83">
         <v>0.8585491732772628</v>
-      </c>
-      <c r="E83">
-        <v>0.9435157487242654</v>
       </c>
       <c r="F83">
         <v>0.9275208564072165</v>
@@ -3120,16 +3117,16 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9855024306210293</v>
+      </c>
+      <c r="C84">
         <v>0.9123075683082131</v>
       </c>
-      <c r="C84">
-        <v>0.9855024306210293</v>
-      </c>
       <c r="D84">
+        <v>0.9534576808023931</v>
+      </c>
+      <c r="E84">
         <v>0.8485138105705821</v>
-      </c>
-      <c r="E84">
-        <v>0.9534576808023931</v>
       </c>
       <c r="F84">
         <v>0.9249453725755543</v>
@@ -3146,16 +3143,16 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9754708124423276</v>
+      </c>
+      <c r="C85">
         <v>0.9173853469815428</v>
       </c>
-      <c r="C85">
-        <v>0.9754708124423276</v>
-      </c>
       <c r="D85">
+        <v>0.9448354742213619</v>
+      </c>
+      <c r="E85">
         <v>0.8556819267896396</v>
-      </c>
-      <c r="E85">
-        <v>0.9448354742213619</v>
       </c>
       <c r="F85">
         <v>0.923343390108718</v>
@@ -3172,16 +3169,16 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9719066646788531</v>
+      </c>
+      <c r="C86">
         <v>0.9203675344563553</v>
       </c>
-      <c r="C86">
-        <v>0.9719066646788531</v>
-      </c>
       <c r="D86">
+        <v>0.9505542847087806</v>
+      </c>
+      <c r="E86">
         <v>0.8628500430086974</v>
-      </c>
-      <c r="E86">
-        <v>0.9505542847087806</v>
       </c>
       <c r="F86">
         <v>0.9264196317131717</v>
@@ -3198,16 +3195,16 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9534158271003422</v>
+      </c>
+      <c r="C87">
         <v>0.9137583622148787</v>
       </c>
-      <c r="C87">
-        <v>0.9534158271003422</v>
-      </c>
       <c r="D87">
+        <v>0.932254091149041</v>
+      </c>
+      <c r="E87">
         <v>0.8591226225747873</v>
-      </c>
-      <c r="E87">
-        <v>0.932254091149041</v>
       </c>
       <c r="F87">
         <v>0.9146377257597623</v>
@@ -3224,16 +3221,16 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9784768404510082</v>
+      </c>
+      <c r="C88">
         <v>0.9324574836785686</v>
       </c>
-      <c r="C88">
-        <v>0.9784768404510082</v>
-      </c>
       <c r="D88">
+        <v>0.945451346120007</v>
+      </c>
+      <c r="E88">
         <v>0.8738411545445857</v>
-      </c>
-      <c r="E88">
-        <v>0.945451346120007</v>
       </c>
       <c r="F88">
         <v>0.9325567061985424</v>
@@ -3250,16 +3247,16 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.00820822255388</v>
+      </c>
+      <c r="C89">
         <v>0.9432578383170791</v>
       </c>
-      <c r="C89">
-        <v>1.00820822255388</v>
-      </c>
       <c r="D89">
+        <v>0.9732535632588422</v>
+      </c>
+      <c r="E89">
         <v>0.875370352671318</v>
-      </c>
-      <c r="E89">
-        <v>0.9732535632588422</v>
       </c>
       <c r="F89">
         <v>0.95002249420028</v>
@@ -3276,16 +3273,16 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.000863988796736</v>
+      </c>
+      <c r="C90">
         <v>0.9435802369630049</v>
       </c>
-      <c r="C90">
-        <v>1.000863988796736</v>
-      </c>
       <c r="D90">
+        <v>0.9691184233679394</v>
+      </c>
+      <c r="E90">
         <v>0.8764216763834465</v>
-      </c>
-      <c r="E90">
-        <v>0.9691184233679394</v>
       </c>
       <c r="F90">
         <v>0.9474960813777817</v>
@@ -3302,16 +3299,16 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.012187536828461</v>
+      </c>
+      <c r="C91">
         <v>0.9529297976948496</v>
       </c>
-      <c r="C91">
-        <v>1.012187536828461</v>
-      </c>
       <c r="D91">
+        <v>0.9848671476332922</v>
+      </c>
+      <c r="E91">
         <v>0.8749880531396349</v>
-      </c>
-      <c r="E91">
-        <v>0.9848671476332922</v>
       </c>
       <c r="F91">
         <v>0.9562431338240596</v>
@@ -3328,16 +3325,16 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.012817151826885</v>
+      </c>
+      <c r="C92">
         <v>0.9532521963407755</v>
       </c>
-      <c r="C92">
-        <v>1.012817151826885</v>
-      </c>
       <c r="D92">
+        <v>0.9745732887559386</v>
+      </c>
+      <c r="E92">
         <v>0.8778552996272579</v>
-      </c>
-      <c r="E92">
-        <v>0.9745732887559386</v>
       </c>
       <c r="F92">
         <v>0.9546244841377143</v>
@@ -3354,16 +3351,16 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.004362736847858</v>
+      </c>
+      <c r="C93">
         <v>0.9472878213911502</v>
       </c>
-      <c r="C93">
-        <v>1.004362736847858</v>
-      </c>
       <c r="D93">
+        <v>0.9789723737462608</v>
+      </c>
+      <c r="E93">
         <v>0.8706871834082004</v>
-      </c>
-      <c r="E93">
-        <v>0.9789723737462608</v>
       </c>
       <c r="F93">
         <v>0.9503275288483672</v>
@@ -3380,16 +3377,16 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.010270560521841</v>
+      </c>
+      <c r="C94">
         <v>0.9598613685822521</v>
       </c>
-      <c r="C94">
-        <v>1.010270560521841</v>
-      </c>
       <c r="D94">
+        <v>0.9773887031497448</v>
+      </c>
+      <c r="E94">
         <v>0.8823473191245341</v>
-      </c>
-      <c r="E94">
-        <v>0.9773887031497448</v>
       </c>
       <c r="F94">
         <v>0.9574669878445929</v>
@@ -3406,16 +3403,16 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.027854939217063</v>
+      </c>
+      <c r="C95">
         <v>0.9819456758281615</v>
       </c>
-      <c r="C95">
-        <v>1.027854939217063</v>
-      </c>
       <c r="D95">
+        <v>0.9863628365300017</v>
+      </c>
+      <c r="E95">
         <v>0.9004109719965594</v>
-      </c>
-      <c r="E95">
-        <v>0.9863628365300017</v>
       </c>
       <c r="F95">
         <v>0.9741436058929462</v>
@@ -3432,16 +3429,16 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.019992001818778</v>
+      </c>
+      <c r="C96">
         <v>0.9727573144192796</v>
       </c>
-      <c r="C96">
-        <v>1.019992001818778</v>
-      </c>
       <c r="D96">
+        <v>0.9736934717578744</v>
+      </c>
+      <c r="E96">
         <v>0.8991684985185893</v>
-      </c>
-      <c r="E96">
-        <v>0.9736934717578744</v>
       </c>
       <c r="F96">
         <v>0.9664028216286302</v>
@@ -3458,16 +3455,16 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.027098174663985</v>
+      </c>
+      <c r="C97">
         <v>0.994438623357782</v>
       </c>
-      <c r="C97">
-        <v>1.027098174663985</v>
-      </c>
       <c r="D97">
+        <v>0.9847791659334858</v>
+      </c>
+      <c r="E97">
         <v>0.91790117557106</v>
-      </c>
-      <c r="E97">
-        <v>0.9847791659334858</v>
       </c>
       <c r="F97">
         <v>0.9810542848815782</v>
@@ -3484,16 +3481,16 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.045181443420068</v>
+      </c>
+      <c r="C98">
         <v>0.9865398565326026</v>
       </c>
-      <c r="C98">
-        <v>1.045181443420068</v>
-      </c>
       <c r="D98">
+        <v>0.9952489882104522</v>
+      </c>
+      <c r="E98">
         <v>0.9124534072445761</v>
-      </c>
-      <c r="E98">
-        <v>0.9952489882104522</v>
       </c>
       <c r="F98">
         <v>0.9848559238519248</v>
@@ -3510,16 +3507,16 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.077606578595302</v>
+      </c>
+      <c r="C99">
         <v>0.9982268074474088</v>
       </c>
-      <c r="C99">
-        <v>1.077606578595302</v>
-      </c>
       <c r="D99">
+        <v>1.035192679922576</v>
+      </c>
+      <c r="E99">
         <v>0.9243046927267513</v>
-      </c>
-      <c r="E99">
-        <v>1.035192679922576</v>
       </c>
       <c r="F99">
         <v>1.00883268967301</v>
@@ -3536,16 +3533,16 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.070294895720047</v>
+      </c>
+      <c r="C100">
         <v>1.003707584428146</v>
       </c>
-      <c r="C100">
-        <v>1.070294895720047</v>
-      </c>
       <c r="D100">
+        <v>1.029297906035544</v>
+      </c>
+      <c r="E100">
         <v>0.9275542387460576</v>
-      </c>
-      <c r="E100">
-        <v>1.029297906035544</v>
       </c>
       <c r="F100">
         <v>1.007713656232449</v>
@@ -3562,16 +3559,16 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.061065243376252</v>
+      </c>
+      <c r="C101">
         <v>0.9859756589022327</v>
       </c>
-      <c r="C101">
-        <v>1.061065243376252</v>
-      </c>
       <c r="D101">
+        <v>1.013285236670772</v>
+      </c>
+      <c r="E101">
         <v>0.9114976584153685</v>
-      </c>
-      <c r="E101">
-        <v>1.013285236670772</v>
       </c>
       <c r="F101">
         <v>0.9929559493411565</v>
@@ -3588,16 +3585,16 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.038995236460245</v>
+      </c>
+      <c r="C102">
         <v>0.9782380914000162</v>
       </c>
-      <c r="C102">
-        <v>1.038995236460245</v>
-      </c>
       <c r="D102">
+        <v>0.9834594404363891</v>
+      </c>
+      <c r="E102">
         <v>0.9220108955366529</v>
-      </c>
-      <c r="E102">
-        <v>0.9834594404363891</v>
       </c>
       <c r="F102">
         <v>0.9806759159583259</v>
@@ -3614,16 +3611,16 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.049185810204051</v>
+      </c>
+      <c r="C103">
         <v>0.9867010558555654</v>
       </c>
-      <c r="C103">
-        <v>1.049185810204051</v>
-      </c>
       <c r="D103">
+        <v>0.9824916417385183</v>
+      </c>
+      <c r="E103">
         <v>0.9234445187804644</v>
-      </c>
-      <c r="E103">
-        <v>0.9824916417385183</v>
       </c>
       <c r="F103">
         <v>0.9854557566446498</v>
@@ -3640,16 +3637,16 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.027612260102204</v>
+      </c>
+      <c r="C104">
         <v>1.003143386797775</v>
       </c>
-      <c r="C104">
-        <v>1.027612260102204</v>
-      </c>
       <c r="D104">
+        <v>0.9783565018476157</v>
+      </c>
+      <c r="E104">
         <v>0.9410302972378859</v>
-      </c>
-      <c r="E104">
-        <v>0.9783565018476157</v>
       </c>
       <c r="F104">
         <v>0.9875356114963703</v>
@@ -3666,16 +3663,16 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.02929647649863</v>
+      </c>
+      <c r="C105">
         <v>0.9947610220037076</v>
       </c>
-      <c r="C105">
-        <v>1.02929647649863</v>
-      </c>
       <c r="D105">
+        <v>0.9735175083582615</v>
+      </c>
+      <c r="E105">
         <v>0.9468603650960528</v>
-      </c>
-      <c r="E105">
-        <v>0.9735175083582615</v>
       </c>
       <c r="F105">
         <v>0.9861088429891628</v>
@@ -3692,16 +3689,16 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.03198327743756</v>
+      </c>
+      <c r="C106">
         <v>0.9983880067703715</v>
       </c>
-      <c r="C106">
-        <v>1.03198327743756</v>
-      </c>
       <c r="D106">
+        <v>0.9815238430406474</v>
+      </c>
+      <c r="E106">
         <v>0.9463824906814489</v>
-      </c>
-      <c r="E106">
-        <v>0.9815238430406474</v>
       </c>
       <c r="F106">
         <v>0.9895694044825069</v>
@@ -3718,16 +3715,16 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.06555237375444</v>
+      </c>
+      <c r="C107">
         <v>1.00507777867333</v>
       </c>
-      <c r="C107">
-        <v>1.06555237375444</v>
-      </c>
       <c r="D107">
+        <v>1.027538272039416</v>
+      </c>
+      <c r="E107">
         <v>0.9642549937876325</v>
-      </c>
-      <c r="E107">
-        <v>1.027538272039416</v>
       </c>
       <c r="F107">
         <v>1.015605854563705</v>
@@ -3744,16 +3741,16 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.081025017090765</v>
+      </c>
+      <c r="C108">
         <v>0.9931490287740792</v>
       </c>
-      <c r="C108">
-        <v>1.081025017090765</v>
-      </c>
       <c r="D108">
+        <v>1.050589477388703</v>
+      </c>
+      <c r="E108">
         <v>0.9474338143935773</v>
-      </c>
-      <c r="E108">
-        <v>1.050589477388703</v>
       </c>
       <c r="F108">
         <v>1.018049334411781</v>
@@ -3770,16 +3767,16 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.066108730646828</v>
+      </c>
+      <c r="C109">
         <v>1.000402998307407</v>
       </c>
-      <c r="C109">
-        <v>1.066108730646828</v>
-      </c>
       <c r="D109">
+        <v>1.039943691712124</v>
+      </c>
+      <c r="E109">
         <v>0.9536461817834273</v>
-      </c>
-      <c r="E109">
-        <v>1.039943691712124</v>
       </c>
       <c r="F109">
         <v>1.015025400612447</v>
@@ -3796,16 +3793,16 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.021693263356634</v>
+      </c>
+      <c r="C110">
         <v>0.9752559039252036</v>
       </c>
-      <c r="C110">
-        <v>1.021693263356634</v>
-      </c>
       <c r="D110">
+        <v>0.9936653176139362</v>
+      </c>
+      <c r="E110">
         <v>0.9436108190767466</v>
-      </c>
-      <c r="E110">
-        <v>0.9936653176139362</v>
       </c>
       <c r="F110">
         <v>0.9835563259931301</v>
@@ -3822,16 +3819,16 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.039040226695167</v>
+      </c>
+      <c r="C111">
         <v>1.018457322479246</v>
       </c>
-      <c r="C111">
-        <v>1.039040226695167</v>
-      </c>
       <c r="D111">
+        <v>1.014956888967095</v>
+      </c>
+      <c r="E111">
         <v>0.9669310905094142</v>
-      </c>
-      <c r="E111">
-        <v>1.014956888967095</v>
       </c>
       <c r="F111">
         <v>1.00984638216273</v>
@@ -3848,16 +3845,16 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.06684170897195</v>
+      </c>
+      <c r="C112">
         <v>1.03062787136294</v>
       </c>
-      <c r="C112">
-        <v>1.06684170897195</v>
-      </c>
       <c r="D112">
+        <v>1.038184057715995</v>
+      </c>
+      <c r="E112">
         <v>0.9765841536844118</v>
-      </c>
-      <c r="E112">
-        <v>1.038184057715995</v>
       </c>
       <c r="F112">
         <v>1.028059447933824</v>
@@ -3874,16 +3871,16 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.081004197934042</v>
+      </c>
+      <c r="C113">
         <v>1.041105827355525</v>
       </c>
-      <c r="C113">
-        <v>1.081004197934042</v>
-      </c>
       <c r="D113">
+        <v>1.070649304944572</v>
+      </c>
+      <c r="E113">
         <v>0.9823186466596578</v>
-      </c>
-      <c r="E113">
-        <v>1.070649304944572</v>
       </c>
       <c r="F113">
         <v>1.043769494223449</v>
@@ -3900,16 +3897,16 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.085273316856529</v>
+      </c>
+      <c r="C114">
         <v>1.044571612799226</v>
       </c>
-      <c r="C114">
-        <v>1.085273316856529</v>
-      </c>
       <c r="D114">
+        <v>1.07364068273799</v>
+      </c>
+      <c r="E114">
         <v>0.9725700086017395</v>
-      </c>
-      <c r="E114">
-        <v>1.07364068273799</v>
       </c>
       <c r="F114">
         <v>1.044013905248871</v>
@@ -3926,16 +3923,16 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.100747512008352</v>
+      </c>
+      <c r="C115">
         <v>1.076166680099944</v>
       </c>
-      <c r="C115">
-        <v>1.100747512008352</v>
-      </c>
       <c r="D115">
+        <v>1.088509590005279</v>
+      </c>
+      <c r="E115">
         <v>0.984325719200994</v>
-      </c>
-      <c r="E115">
-        <v>1.088509590005279</v>
       </c>
       <c r="F115">
         <v>1.062437375328642</v>
@@ -3952,16 +3949,16 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.113809018910833</v>
+      </c>
+      <c r="C116">
         <v>1.077214475699202</v>
       </c>
-      <c r="C116">
-        <v>1.113809018910833</v>
-      </c>
       <c r="D116">
+        <v>1.123790251627661</v>
+      </c>
+      <c r="E116">
         <v>0.9810761731816878</v>
-      </c>
-      <c r="E116">
-        <v>1.123790251627661</v>
       </c>
       <c r="F116">
         <v>1.073972479854846</v>
@@ -3978,16 +3975,16 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.131908687253101</v>
+      </c>
+      <c r="C117">
         <v>1.086080438462159</v>
       </c>
-      <c r="C117">
-        <v>1.131908687253101</v>
-      </c>
       <c r="D117">
+        <v>1.129773007214499</v>
+      </c>
+      <c r="E117">
         <v>0.9768708783331741</v>
-      </c>
-      <c r="E117">
-        <v>1.129773007214499</v>
       </c>
       <c r="F117">
         <v>1.081158252815733</v>
@@ -4004,25 +4001,259 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.086080438462159</v>
+        <v>1.146698010360243</v>
       </c>
       <c r="C118">
-        <v>1.146698047603815</v>
+        <v>1.096235995808818</v>
       </c>
       <c r="D118">
-        <v>0.9768708783331741</v>
+        <v>1.144377969382368</v>
       </c>
       <c r="E118">
-        <v>1.129773007214499</v>
+        <v>0.9907292363566854</v>
       </c>
       <c r="F118">
-        <v>1.084855592903412</v>
+        <v>1.094510302977029</v>
       </c>
       <c r="G118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="H118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.160105385900947</v>
+      </c>
+      <c r="C119">
+        <v>1.080680261142903</v>
+      </c>
+      <c r="D119">
+        <v>1.176139363012493</v>
+      </c>
+      <c r="E119">
+        <v>0.9688425881678295</v>
+      </c>
+      <c r="F119">
+        <v>1.096441899556043</v>
+      </c>
+      <c r="G119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="H119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.183642777137457</v>
+      </c>
+      <c r="C120">
+        <v>1.104940759248811</v>
+      </c>
+      <c r="D120">
+        <v>1.190920288579975</v>
+      </c>
+      <c r="E120">
+        <v>0.9876708401032209</v>
+      </c>
+      <c r="F120">
+        <v>1.116793666267366</v>
+      </c>
+      <c r="G120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="H120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.161165300715214</v>
+      </c>
+      <c r="C121">
+        <v>1.085274441847344</v>
+      </c>
+      <c r="D121">
+        <v>1.153704029561851</v>
+      </c>
+      <c r="E121">
+        <v>0.9657841919143648</v>
+      </c>
+      <c r="F121">
+        <v>1.091481991009694</v>
+      </c>
+      <c r="G121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="H121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.138213688792936</v>
+      </c>
+      <c r="C122">
+        <v>1.061094543402918</v>
+      </c>
+      <c r="D122">
+        <v>1.138571177195143</v>
+      </c>
+      <c r="E122">
+        <v>0.9441842683742713</v>
+      </c>
+      <c r="F122">
+        <v>1.070515919441317</v>
+      </c>
+      <c r="G122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="H122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.144097055854669</v>
+      </c>
+      <c r="C123">
+        <v>1.086402837108084</v>
+      </c>
+      <c r="D123">
+        <v>1.157311279253915</v>
+      </c>
+      <c r="E123">
+        <v>0.9706585109433241</v>
+      </c>
+      <c r="F123">
+        <v>1.089617420789998</v>
+      </c>
+      <c r="G123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="H123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.134395912304448</v>
+      </c>
+      <c r="C124">
+        <v>1.079471266220682</v>
+      </c>
+      <c r="D124">
+        <v>1.134875945803273</v>
+      </c>
+      <c r="E124">
+        <v>0.971518684889611</v>
+      </c>
+      <c r="F124">
+        <v>1.080065452304503</v>
+      </c>
+      <c r="G124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="H124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.18707277355475</v>
+      </c>
+      <c r="C125">
+        <v>1.097364391069558</v>
+      </c>
+      <c r="D125">
+        <v>1.195759282069329</v>
+      </c>
+      <c r="E125">
+        <v>0.9767753034502533</v>
+      </c>
+      <c r="F125">
+        <v>1.114242937535973</v>
+      </c>
+      <c r="G125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="H125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.203272436244684</v>
+      </c>
+      <c r="C126">
+        <v>1.122108487144354</v>
+      </c>
+      <c r="D126">
+        <v>1.207724793243006</v>
+      </c>
+      <c r="E126">
+        <v>0.9730478830163433</v>
+      </c>
+      <c r="F126">
+        <v>1.126538399912097</v>
+      </c>
+      <c r="G126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="H126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.206036207232322</v>
+      </c>
+      <c r="C127">
+        <v>1.109696139276215</v>
+      </c>
+      <c r="D127">
+        <v>1.215731127925391</v>
+      </c>
+      <c r="E127">
+        <v>0.9688425881678295</v>
+      </c>
+      <c r="F127">
+        <v>1.125076515650439</v>
+      </c>
+      <c r="G127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="H127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4134,18 +4365,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -4177,19 +4408,16 @@
       <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>46</v>
@@ -4210,27 +4438,24 @@
         <v>0.25</v>
       </c>
       <c r="J2">
-        <v>49.36</v>
+        <v>4.518700122833252</v>
       </c>
       <c r="K2">
-        <v>5.46</v>
+        <v>39.26179885864258</v>
       </c>
       <c r="L2">
-        <v>12.3</v>
-      </c>
-      <c r="M2">
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.5733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
@@ -4251,24 +4476,21 @@
         <v>0.25</v>
       </c>
       <c r="J3">
-        <v>36.67</v>
+        <v>5.511099815368652</v>
       </c>
       <c r="K3">
-        <v>4.21</v>
+        <v>49.79249954223633</v>
       </c>
       <c r="L3">
-        <v>14.81</v>
-      </c>
-      <c r="M3">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>15.885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>44</v>
@@ -4292,24 +4514,21 @@
         <v>0.25</v>
       </c>
       <c r="J4">
-        <v>33.13</v>
+        <v>5.359000205993652</v>
       </c>
       <c r="K4">
-        <v>3.36</v>
+        <v>52.7661018371582</v>
       </c>
       <c r="L4">
-        <v>5.49</v>
-      </c>
-      <c r="M4">
-        <v>-8.800000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>44.9032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
@@ -4333,16 +4552,13 @@
         <v>0.25</v>
       </c>
       <c r="J5">
-        <v>48.82</v>
+        <v>3.245599985122681</v>
       </c>
       <c r="K5">
-        <v>4.98</v>
+        <v>32.04690170288086</v>
       </c>
       <c r="L5">
-        <v>15.45</v>
-      </c>
-      <c r="M5">
-        <v>44.9</v>
+        <v>-8.7982</v>
       </c>
     </row>
   </sheetData>
@@ -4386,13 +4602,13 @@
         <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4406,13 +4622,13 @@
         <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4426,13 +4642,13 @@
         <v>93</v>
       </c>
       <c r="D4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4446,13 +4662,13 @@
         <v>94</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4466,13 +4682,13 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4486,13 +4702,13 @@
         <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4506,13 +4722,13 @@
         <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4526,13 +4742,13 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4546,13 +4762,13 @@
         <v>99</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4566,13 +4782,13 @@
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4586,13 +4802,13 @@
         <v>101</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4606,13 +4822,13 @@
         <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4626,13 +4842,13 @@
         <v>103</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E14" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4646,13 +4862,13 @@
         <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4666,13 +4882,13 @@
         <v>105</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E16" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4686,13 +4902,13 @@
         <v>106</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4706,13 +4922,13 @@
         <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4723,16 +4939,16 @@
         <v>88</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4743,16 +4959,16 @@
         <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4763,16 +4979,16 @@
         <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4998,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4790,10 +5006,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4801,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" t="s">
         <v>181</v>
@@ -4809,10 +5025,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C3" t="s">
         <v>182</v>
@@ -4820,10 +5036,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
         <v>183</v>
@@ -4831,10 +5047,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
         <v>184</v>
@@ -4842,10 +5058,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
         <v>185</v>
@@ -4856,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>186</v>
@@ -4867,7 +5083,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
         <v>187</v>
@@ -4875,24 +5091,13 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C9" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C10" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
